--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094043.192316637</v>
+        <v>1090569.222288339</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564199</v>
+        <v>189902.9539564207</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>130.4588318996847</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>145.3115951244306</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>56.07426992839164</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>42.94935504550583</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>185.8068021338312</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9365082826093</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="10">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.3197306044664</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>9.27559683049698</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.3628673196028</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11.2876601105465</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5220440822058</v>
       </c>
       <c r="I13" t="n">
-        <v>9.275596830496628</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.75446130335949</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>269.5134569480836</v>
+        <v>351.2391879744746</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>355.5467565582664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>84.45262105857543</v>
       </c>
       <c r="H25" t="n">
-        <v>153.0555388225929</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>205.2928925620242</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>12.77609278441097</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.0246247964032</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.92375604299455</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>189.5968436493439</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228957</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>261.753697956237</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>157.0044783406136</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>376.1848636439243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>43.3178534391397</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.20988753395282</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>111.8822753849631</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1944522398489</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>223.1498336210772</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1099.346874905661</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1099.346874905661</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D2" t="n">
-        <v>1099.346874905661</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1099.346874905661</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,37 +4419,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.2778500677821</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="C5" t="n">
-        <v>622.3153331273704</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="D5" t="n">
-        <v>264.0496345206199</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>995.9506728057374</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>991.2778500677821</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4635,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.959449965771</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9969330253591</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7312344186087</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2491.152618005486</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2237.390832643577</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1906.327945300007</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1553.559290029893</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1553.559290029893</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.559290029893</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810048</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810048</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.5755868835438</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C11" t="n">
-        <v>919.5755868835438</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>561.3098882767933</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>175.5216356785491</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>175.5216356785491</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>175.5216356785491</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>175.5216356785491</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X11" t="n">
-        <v>1309.714918859356</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y11" t="n">
-        <v>919.5755868835438</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="12">
@@ -5124,10 +5124,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5142,10 +5142,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
         <v>2289.884200196743</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.9687959810045</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C13" t="n">
-        <v>108.9687959810045</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9687959810045</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9687959810045</v>
+        <v>331.20325038051</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9687959810045</v>
+        <v>331.20325038051</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9687959810045</v>
+        <v>331.20325038051</v>
       </c>
       <c r="H13" t="n">
-        <v>108.9687959810045</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>108.9687959810045</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.9687959810045</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.5099885583422</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5294,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
+        <v>2697.149091018223</v>
+      </c>
+      <c r="R14" t="n">
         <v>2697.149091018222</v>
       </c>
-      <c r="R14" t="n">
-        <v>2642.120401548716</v>
-      </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>403.6754589963297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6756587346621</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>76.92728616719222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C17" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D17" t="n">
-        <v>1122.952954307291</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E17" t="n">
-        <v>737.1647017090463</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="F17" t="n">
-        <v>326.1787969194388</v>
+        <v>408.7300403804399</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y19" t="n">
-        <v>507.3364050629041</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1568.12097575261</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>824.0670245476149</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>413.0811197580073</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224079</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X20" t="n">
         <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,70 +5963,70 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
         <v>2323.683332757143</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036421</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036421</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614626</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571344</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761944</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>377.5443364482875</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D25" t="n">
-        <v>377.5443364482875</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E25" t="n">
-        <v>377.5443364482875</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F25" t="n">
-        <v>377.5443364482875</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G25" t="n">
-        <v>208.5445361866199</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1626.94664591678</v>
+        <v>999.4901647174279</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>999.4901647174279</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>999.4901647174279</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>999.4901647174279</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>588.5042599278204</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2684.243946791545</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.181059447974</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W26" t="n">
-        <v>2000.41240417786</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>1626.94664591678</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y26" t="n">
-        <v>1626.94664591678</v>
+        <v>1386.09000478155</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615927</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658208</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502498</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.26178935949</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064341</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>597.8010803716834</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S28" t="n">
-        <v>597.8010803716834</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>819.715945170047</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
-        <v>433.9276925718028</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224079</v>
@@ -6479,34 +6479,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>536.6170209242687</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U31" t="n">
-        <v>536.6170209242687</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.94416071721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776798</v>
+        <v>1215.860583733539</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776798</v>
+        <v>857.5948851267888</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785536</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889461</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>471.8066325285445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6789,7 +6789,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
         <v>2188.831293537797</v>
@@ -6798,22 +6798,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>2328.443418292299</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>2181.553470794389</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>598.044640063212</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776798</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>819.7159451700475</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E35" t="n">
-        <v>433.9276925718032</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
         <v>53.94298182036446</v>
@@ -6938,10 +6938,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6977,10 +6977,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2066.718496146436</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="C37" t="n">
-        <v>2066.718496146436</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="D37" t="n">
-        <v>2066.718496146436</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="E37" t="n">
-        <v>2066.718496146436</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="F37" t="n">
-        <v>2066.718496146436</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>2350.585713044361</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>2192.837340476892</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>2056.50842957554</v>
       </c>
       <c r="J37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7114,31 @@
         <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>2667.732171871845</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018223</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.159540120206</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="Y37" t="n">
-        <v>2248.366960976676</v>
+        <v>2519.585513306029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247703</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.952954307291</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E38" t="n">
-        <v>737.1647017090468</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1787969194392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7263,13 +7263,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>2471.7452186737</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247703</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090468</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194392</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7485,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
@@ -7497,7 +7497,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482877</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D43" t="n">
-        <v>377.5443364482877</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E43" t="n">
-        <v>377.5443364482877</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F43" t="n">
-        <v>377.5443364482877</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090468</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194392</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7667,7 +7667,7 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7688,10 +7688,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7737,31 +7737,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>502.7251118619119</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>502.7251118619119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,13 +9015,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,10 +9726,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451762</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>224.2242097209983</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>261.5644506172808</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22714,19 +22714,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22762,13 +22762,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22784,22 +22784,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>325.8561001438702</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>363.9266906962056</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,13 +22829,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,16 +22987,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>227.9773678869638</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>12.51181207504845</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,13 +23191,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458451</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618412</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,10 +23227,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23276,7 +23276,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>31.56844892525845</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>358.4434405679226</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,13 +23431,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>16.64884475958934</v>
       </c>
       <c r="I13" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>112.2111604889787</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>144.2707130727114</v>
+        <v>62.54498204632034</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>50.80735538553375</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23944,10 +23944,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>58.23741346252859</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,19 +24181,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>131.0703856053968</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="H25" t="n">
-        <v>3.115350019202282</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24406,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>208.4912774587708</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,7 +24497,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>238.4480747238783</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24643,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>17.64056718375465</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150897</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>35.43826180874041</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789928</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>62.16907480812017</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24974,16 +24974,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>10.3053239184373</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25096,7 +25096,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,19 +25129,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>30.69118209778713</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.9919488199112</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>11.99007165458417</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,16 +25394,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25448,10 +25448,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,19 +25603,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>63.37316471551387</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,13 +25682,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>139.3418921233262</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.115350019202054</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>63.13204062090054</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>740597.344109998</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157576</v>
@@ -26320,28 +26320,28 @@
         <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="F2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="K2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157577</v>
       </c>
       <c r="M2" t="n">
         <v>289152.6100157577</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401488.0603223923</v>
+        <v>-401903.2748318597</v>
       </c>
       <c r="C6" t="n">
-        <v>188479.8188921521</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="D6" t="n">
-        <v>188479.8188921521</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="E6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="F6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="G6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.204382685</v>
       </c>
       <c r="H6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="I6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.204382685</v>
       </c>
       <c r="J6" t="n">
-        <v>45684.19969955903</v>
+        <v>45268.98519009189</v>
       </c>
       <c r="K6" t="n">
-        <v>222107.4188921522</v>
+        <v>221692.204382685</v>
       </c>
       <c r="L6" t="n">
-        <v>222107.4188921522</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="M6" t="n">
-        <v>222107.4188921522</v>
+        <v>221692.204382685</v>
       </c>
       <c r="N6" t="n">
-        <v>222107.4188921522</v>
+        <v>221692.204382685</v>
       </c>
       <c r="O6" t="n">
-        <v>222107.4188921522</v>
+        <v>221692.204382685</v>
       </c>
       <c r="P6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26802,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M28" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N28" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35492,13 +35492,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245897</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,13 +35735,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
         <v>148.370846145888</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N28" t="n">
         <v>148.370846145888</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,13 +37157,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,13 +37394,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37631,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37865,16 +37865,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
